--- a/results_for_thesis/Delta_Datatype/time_saved_with_delta_set.xlsx
+++ b/results_for_thesis/Delta_Datatype/time_saved_with_delta_set.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/tim_braun_bwedu_de/Documents/MASTER/Masterarbeit/Software/Ensemble_Embedding_for_Link_Prediction/results_for_thesis/Delta_Datatype/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masterarbeit\Software\Ensemble_Embedding_for_Link_Prediction\results_for_thesis\Delta_Datatype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F86149A-C3F1-4F4A-8A11-DE09824B48C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A755F-205C-49EE-9E05-2C10E3763573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3360" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="51480" yWindow="3360" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_saved_with_delta_set" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +83,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,13 +565,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -931,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,27 +1208,27 @@
         <v>7</v>
       </c>
       <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B13:G13" si="0">AVERAGE(B2:B11)</f>
         <v>688.93329999999992</v>
       </c>
       <c r="C13" s="2">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>186.73929999999999</v>
       </c>
       <c r="D13" s="2">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>22.359899999999996</v>
       </c>
       <c r="E13" s="2">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>10.240900000000002</v>
       </c>
       <c r="F13" s="2">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>65.170700000000011</v>
       </c>
       <c r="G13" s="2">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>48.439799999999998</v>
       </c>
     </row>
@@ -1214,27 +1237,27 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <f>B13/60</f>
+        <f t="shared" ref="B14:G14" si="1">B13/60</f>
         <v>11.482221666666666</v>
       </c>
       <c r="C14" s="2">
-        <f>C13/60</f>
+        <f t="shared" si="1"/>
         <v>3.1123216666666664</v>
       </c>
       <c r="D14" s="2">
-        <f>D13/60</f>
+        <f t="shared" si="1"/>
         <v>0.37266499999999991</v>
       </c>
       <c r="E14" s="2">
-        <f>E13/60</f>
+        <f t="shared" si="1"/>
         <v>0.1706816666666667</v>
       </c>
       <c r="F14" s="2">
-        <f>F13/60</f>
+        <f t="shared" si="1"/>
         <v>1.0861783333333335</v>
       </c>
       <c r="G14" s="2">
-        <f>G13/60</f>
+        <f t="shared" si="1"/>
         <v>0.80732999999999999</v>
       </c>
     </row>
@@ -1247,397 +1270,389 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>755329</v>
+      </c>
+      <c r="C17" s="2">
+        <v>755429</v>
+      </c>
+      <c r="D17" s="2">
+        <v>60785</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60806</v>
+      </c>
+      <c r="F17" s="2">
+        <v>93843</v>
+      </c>
+      <c r="G17" s="2">
+        <v>93657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>755494</v>
+      </c>
+      <c r="C18" s="2">
+        <v>755334</v>
+      </c>
+      <c r="D18" s="2">
+        <v>60786</v>
+      </c>
+      <c r="E18" s="2">
+        <v>60786</v>
+      </c>
+      <c r="F18" s="2">
+        <v>93662</v>
+      </c>
+      <c r="G18" s="2">
+        <v>93508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>755344</v>
+      </c>
+      <c r="C19" s="2">
+        <v>755334</v>
+      </c>
+      <c r="D19" s="2">
+        <v>60787</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60787</v>
+      </c>
+      <c r="F19" s="2">
+        <v>93508</v>
+      </c>
+      <c r="G19" s="2">
+        <v>93508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>755340</v>
+      </c>
+      <c r="C20" s="2">
+        <v>755371</v>
+      </c>
+      <c r="D20" s="2">
+        <v>60785</v>
+      </c>
+      <c r="E20" s="2">
+        <v>60786</v>
+      </c>
+      <c r="F20" s="2">
+        <v>93517</v>
+      </c>
+      <c r="G20" s="2">
+        <v>93508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>755329</v>
+      </c>
+      <c r="C21" s="2">
+        <v>755377</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60794</v>
+      </c>
+      <c r="E21" s="2">
+        <v>60785</v>
+      </c>
+      <c r="F21" s="2">
+        <v>93509</v>
+      </c>
+      <c r="G21" s="2">
+        <v>93510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>755330</v>
+      </c>
+      <c r="C22" s="2">
+        <v>755339</v>
+      </c>
+      <c r="D22" s="2">
+        <v>60789</v>
+      </c>
+      <c r="E22" s="2">
+        <v>60785</v>
+      </c>
+      <c r="F22" s="2">
+        <v>93508</v>
+      </c>
+      <c r="G22" s="2">
+        <v>93509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>755333</v>
+      </c>
+      <c r="C23" s="2">
+        <v>755652</v>
+      </c>
+      <c r="D23" s="2">
+        <v>60786</v>
+      </c>
+      <c r="E23" s="2">
+        <v>60786</v>
+      </c>
+      <c r="F23" s="2">
+        <v>93512</v>
+      </c>
+      <c r="G23" s="2">
+        <v>93508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>755338</v>
+      </c>
+      <c r="C24" s="2">
+        <v>755337</v>
+      </c>
+      <c r="D24" s="2">
+        <v>60785</v>
+      </c>
+      <c r="E24" s="2">
+        <v>60787</v>
+      </c>
+      <c r="F24" s="2">
+        <v>93508</v>
+      </c>
+      <c r="G24" s="2">
+        <v>93508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>755386</v>
+      </c>
+      <c r="C25" s="2">
+        <v>755362</v>
+      </c>
+      <c r="D25" s="2">
+        <v>60785</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60788</v>
+      </c>
+      <c r="F25" s="2">
+        <v>93542</v>
+      </c>
+      <c r="G25" s="2">
+        <v>93509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>755416</v>
+      </c>
+      <c r="C26" s="2">
+        <v>755334</v>
+      </c>
+      <c r="D26" s="2">
+        <v>60785</v>
+      </c>
+      <c r="E26" s="2">
+        <v>60786</v>
+      </c>
+      <c r="F26" s="2">
+        <v>93565</v>
+      </c>
+      <c r="G26" s="2">
+        <v>93508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4">
+        <f>SUM(B17:B26)/SUM(B2:B11)</f>
+        <v>1096.4252998076884</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUM(C17:C26)/SUM(C2:C11)</f>
+        <v>4045.1415422463301</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D17:D26)/SUM(D2:D11)</f>
+        <v>2718.5586697614931</v>
+      </c>
+      <c r="E28" s="4">
+        <f>SUM(E17:E26)/SUM(E2:E11)</f>
+        <v>5935.8259527971159</v>
+      </c>
+      <c r="F28" s="4">
+        <f>SUM(F17:F26)/SUM(F2:F11)</f>
+        <v>1435.7280188796497</v>
+      </c>
+      <c r="G28" s="4">
+        <f>SUM(G17:G26)/SUM(G2:G11)</f>
+        <v>1930.7119352268178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <f>SUM(B2:B11)/SUM(B2:B11)</f>
+      <c r="B30" s="5">
+        <f>B28/B28</f>
         <v>1</v>
       </c>
-      <c r="C16" s="3">
-        <f>SUM(B2:B11)/SUM(C2:C11)</f>
-        <v>3.6892785824944188</v>
-      </c>
-      <c r="D16" s="3">
-        <f>SUM(D2:D11)/SUM(D2:D11)</f>
+      <c r="C30" s="5">
+        <f>B28/C28</f>
+        <v>0.27104744997348751</v>
+      </c>
+      <c r="D30" s="5">
+        <f>D28/D28</f>
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <f>SUM(D2:D11)/SUM(E2:E11)</f>
-        <v>2.1833920846800567</v>
-      </c>
-      <c r="F16" s="3">
-        <f>SUM(F2:F11)/SUM(F2:F11)</f>
+      <c r="E30" s="5">
+        <f>D28/E28</f>
+        <v>0.45799164115996988</v>
+      </c>
+      <c r="F30" s="5">
+        <f>F28/F28</f>
         <v>1</v>
       </c>
-      <c r="G16" s="3">
-        <f>SUM(F2:F11)/SUM(G2:G11)</f>
-        <v>1.3453957283060627</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G30" s="5">
+        <f>F28/G28</f>
+        <v>0.7436262202993954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B32" s="2">
         <f>SUM(B2:B11)-SUM(B2:B11)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <f>SUM(B2:B11)-SUM(C2:C11)</f>
-        <v>5021.9399999999996</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C32" s="4">
+        <f>SUM(C2:C11)-SUM(B2:B11)</f>
+        <v>-5021.9399999999996</v>
+      </c>
+      <c r="D32" s="2">
         <f>SUM(D2:D11)-SUM(D2:D11)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <f>SUM(D2:D11)-SUM(E2:E11)</f>
-        <v>121.18999999999994</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E32" s="4">
+        <f>SUM(E2:E11)-SUM(D2:D11)</f>
+        <v>-121.18999999999994</v>
+      </c>
+      <c r="F32" s="2">
         <f>SUM(F2:F11)-SUM(F2:F11)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="2">
-        <f>SUM(F2:F11)-SUM(G2:G11)</f>
-        <v>167.30900000000014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G32" s="4">
+        <f>SUM(G2:G11)-SUM(F2:F11)</f>
+        <v>-167.30900000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
-        <f>B18/60</f>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:G34" si="2">B32/60</f>
         <v>0</v>
       </c>
-      <c r="C19" s="2">
-        <f>C18/60</f>
-        <v>83.698999999999998</v>
-      </c>
-      <c r="D19" s="2">
-        <f>D18/60</f>
+      <c r="C33" s="4">
+        <f t="shared" si="2"/>
+        <v>-83.698999999999998</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
-        <f>E18/60</f>
-        <v>2.0198333333333323</v>
-      </c>
-      <c r="F19" s="2">
-        <f>F18/60</f>
+      <c r="E33" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.0198333333333323</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2">
-        <f>G18/60</f>
-        <v>2.7884833333333359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <f>B19/60</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <f>C19/60</f>
-        <v>1.3949833333333332</v>
-      </c>
-      <c r="D20" s="2">
-        <f>D19/60</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <f>E19/60</f>
-        <v>3.3663888888888868E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <f>F19/60</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f>G19/60</f>
-        <v>4.6474722222222264E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2">
-        <v>755329</v>
-      </c>
-      <c r="C23" s="2">
-        <v>755429</v>
-      </c>
-      <c r="D23" s="2">
-        <v>60785</v>
-      </c>
-      <c r="E23" s="2">
-        <v>60806</v>
-      </c>
-      <c r="F23" s="2">
-        <v>93843</v>
-      </c>
-      <c r="G23" s="2">
-        <v>93657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>755494</v>
-      </c>
-      <c r="C24" s="2">
-        <v>755334</v>
-      </c>
-      <c r="D24" s="2">
-        <v>60786</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60786</v>
-      </c>
-      <c r="F24" s="2">
-        <v>93662</v>
-      </c>
-      <c r="G24" s="2">
-        <v>93508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>755344</v>
-      </c>
-      <c r="C25" s="2">
-        <v>755334</v>
-      </c>
-      <c r="D25" s="2">
-        <v>60787</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60787</v>
-      </c>
-      <c r="F25" s="2">
-        <v>93508</v>
-      </c>
-      <c r="G25" s="2">
-        <v>93508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>755340</v>
-      </c>
-      <c r="C26" s="2">
-        <v>755371</v>
-      </c>
-      <c r="D26" s="2">
-        <v>60785</v>
-      </c>
-      <c r="E26" s="2">
-        <v>60786</v>
-      </c>
-      <c r="F26" s="2">
-        <v>93517</v>
-      </c>
-      <c r="G26" s="2">
-        <v>93508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>755329</v>
-      </c>
-      <c r="C27" s="2">
-        <v>755377</v>
-      </c>
-      <c r="D27" s="2">
-        <v>60794</v>
-      </c>
-      <c r="E27" s="2">
-        <v>60785</v>
-      </c>
-      <c r="F27" s="2">
-        <v>93509</v>
-      </c>
-      <c r="G27" s="2">
-        <v>93510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>755330</v>
-      </c>
-      <c r="C28" s="2">
-        <v>755339</v>
-      </c>
-      <c r="D28" s="2">
-        <v>60789</v>
-      </c>
-      <c r="E28" s="2">
-        <v>60785</v>
-      </c>
-      <c r="F28" s="2">
-        <v>93508</v>
-      </c>
-      <c r="G28" s="2">
-        <v>93509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>755333</v>
-      </c>
-      <c r="C29" s="2">
-        <v>755652</v>
-      </c>
-      <c r="D29" s="2">
-        <v>60786</v>
-      </c>
-      <c r="E29" s="2">
-        <v>60786</v>
-      </c>
-      <c r="F29" s="2">
-        <v>93512</v>
-      </c>
-      <c r="G29" s="2">
-        <v>93508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>755338</v>
-      </c>
-      <c r="C30" s="2">
-        <v>755337</v>
-      </c>
-      <c r="D30" s="2">
-        <v>60785</v>
-      </c>
-      <c r="E30" s="2">
-        <v>60787</v>
-      </c>
-      <c r="F30" s="2">
-        <v>93508</v>
-      </c>
-      <c r="G30" s="2">
-        <v>93508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>755386</v>
-      </c>
-      <c r="C31" s="2">
-        <v>755362</v>
-      </c>
-      <c r="D31" s="2">
-        <v>60785</v>
-      </c>
-      <c r="E31" s="2">
-        <v>60788</v>
-      </c>
-      <c r="F31" s="2">
-        <v>93542</v>
-      </c>
-      <c r="G31" s="2">
-        <v>93509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>755416</v>
-      </c>
-      <c r="C32" s="2">
-        <v>755334</v>
-      </c>
-      <c r="D32" s="2">
-        <v>60785</v>
-      </c>
-      <c r="E32" s="2">
-        <v>60786</v>
-      </c>
-      <c r="F32" s="2">
-        <v>93565</v>
-      </c>
-      <c r="G32" s="2">
-        <v>93508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.7884833333333359</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ref="B34:E34" si="0">SUM(B23:B32)/SUM(B2:B11)</f>
-        <v>1096.4252998076884</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>4045.1415422463301</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.3949833333333332</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>2718.5586697614931</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>5935.8259527971159</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.3663888888888868E-2</v>
       </c>
       <c r="F34" s="2">
-        <f>SUM(F23:F32)/SUM(F2:F11)</f>
-        <v>1435.7280188796497</v>
-      </c>
-      <c r="G34" s="2">
-        <f>SUM(G23:G32)/SUM(G2:G11)</f>
-        <v>1930.7119352268178</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.6474722222222264E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
